--- a/Results/Results_TAIEX_horizon1.xlsx
+++ b/Results/Results_TAIEX_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -590,7 +590,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.97 (0.50)</t>
+          <t>0.98 (0.49)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>50.00 (8.96)</t>
+          <t>48.37 (10.29)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 8, max\_features: 8 \\</t>
+          <t>max\_depth: 16, max\_features: 10 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.24347734 0.14148465 0.27433325 0.33978702 0.54699466 0.5148203
- 0.11645936 0.1560797  0.17233159 0.14485199]</t>
+          <t>[0.21449213 0.14844793 0.27306922 0.34010749 0.54699466 0.51375216
+ 0.12335321 0.16310973 0.19796993 0.14860386]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.9474115  0.50038612 1.25028299 1.11807795 1.72706755 1.93769404
- 0.4701858  0.6286623  0.56722951 0.6029295 ]</t>
+          <t>[0.83462518 0.525013   1.24452216 1.11913245 1.72706755 1.93367378
+ 0.49801857 0.65697806 0.65161811 0.61854622]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.04521339 0.01530775 0.01360701 0.02679367 0.06334358 0.04209619
- 0.01201695 0.01302753 0.00987419 0.00792292]</t>
+          <t>[0.03954732 0.01546535 0.0135254  0.02659912 0.06334358 0.04165763
+ 0.01259889 0.01388066 0.01062307 0.00833656]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[32.55813953 60.46511628 53.48837209 44.18604651 41.86046512 44.18604651
- 62.79069767 58.13953488 53.48837209 48.8372093 ]</t>
+          <t>[27.90697674 62.79069767 48.8372093  41.86046512 41.86046512 41.86046512
+ 58.13953488 58.13953488 44.18604651 58.13953488]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.27 $\pm$ 0.15 &amp; 0.97 $\pm$ 0.50 &amp; 0.02 $\pm$ 1.80 &amp; 50.00 $\pm$ 8.96 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.27 $\pm$ 0.15 &amp; 0.98 $\pm$ 0.49 &amp; 0.02 $\pm$ 1.72 &amp; 48.37 $\pm$ 10.29 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>52.79 (11.11)</t>
+          <t>52.33 (10.04)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 2, n\_estimators: 50 \\</t>
+          <t>max\_depth: 4, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.20986637 0.17115334 0.35354387 0.35914972 0.60172248 0.43084495
- 0.13562214 0.2067941  0.14112181 0.15159873]</t>
+          <t>[0.20007236 0.17303386 0.34978086 0.36290106 0.6065751  0.42541378
+ 0.13606515 0.2131335  0.14523042 0.14857443]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.81662553 0.6053148  1.61128805 1.18179139 1.89986385 1.62162544
- 0.54755242 0.83293124 0.46450251 0.63101204]</t>
+          <t>[0.7785154  0.61196561 1.59413804 1.19413528 1.91518537 1.60118346
+ 0.54934098 0.85846527 0.478026   0.61842372]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.039637   0.01805985 0.01884992 0.02803696 0.07282537 0.03387081
- 0.01406026 0.01697823 0.00736008 0.00773432]</t>
+          <t>[0.03701474 0.01871487 0.01861825 0.02835324 0.07365235 0.03322364
+ 0.01416816 0.01749085 0.00752383 0.00765948]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[34.88372093 74.41860465 51.1627907  53.48837209 41.86046512 48.8372093
- 51.1627907  69.76744186 48.8372093  53.48837209]</t>
+          <t>[39.53488372 69.76744186 53.48837209 53.48837209 41.86046512 48.8372093
+ 53.48837209 69.76744186 41.86046512 51.1627907 ]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.28 $\pm$ 0.15 &amp; 1.02 $\pm$ 0.49 &amp; 0.03 $\pm$ 1.86 &amp; 52.79 $\pm$ 11.11 &amp; "-"</t>
+          <t>Random Forest &amp; 0.28 $\pm$ 0.15 &amp; 1.02 $\pm$ 0.49 &amp; 0.03 $\pm$ 1.86 &amp; 52.33 $\pm$ 10.04 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.22668513 0.21030691 0.522904   0.23557183 0.4371995  0.44949598
- 0.22833201 0.2661812  0.15804124 0.27812203]</t>
+          <t>[0.2266856  0.21030691 0.522904   0.23557183 0.4371995  0.44949994
+ 0.22833242 0.2661812  0.15804113 0.27813823]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0.88207017 0.7437885  2.38315257 0.77515517 1.38040301 1.6918247
- 0.92185345 1.0721323  0.52019281 1.15765053]</t>
+          <t>[0.882072   0.7437885  2.38315257 0.77515517 1.38040301 1.69183957
+ 0.92185514 1.0721323  0.52019246 1.15771795]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.04059514 0.02553234 0.0288581  0.0237551  0.05588966 0.03996023
- 0.0275528  0.02319175 0.00883031 0.01650179]</t>
+          <t>[0.04059526 0.02553234 0.0288581  0.0237551  0.05588966 0.03996066
+ 0.02755284 0.02319175 0.00883031 0.01650273]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50.70 (9.46)</t>
+          <t>51.63 (10.60)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -911,26 +911,26 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.26276201 0.40637301 1.32445617 0.76298024 1.08532183 1.68823063
- 1.07902651 1.47551797 1.63365413 1.79582962]</t>
+          <t>[0.26304964 0.40427282 1.3242579  0.76300151 1.08532183 1.6880663
+ 1.07883374 1.47526253 1.63439149 1.79587642]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.02245145 1.43721178 6.03625351 2.51060612 3.42676858 6.35420645
- 4.35639457 5.94313381 5.3771733  7.47493139]</t>
+          <t>[1.02357065 1.42978409 6.0353499  2.51067611 3.42676858 6.35358794
+ 4.3556163  5.94210497 5.3796003  7.47512621]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.04501024 0.04900711 0.07645027 0.08104111 0.14939128 0.16378804
- 0.14048137 0.14184665 0.11098863 0.11944837]</t>
+          <t>[0.04508584 0.04875919 0.07643172 0.08104652 0.14939128 0.16377002
+ 0.14045013 0.14181213 0.11103742 0.11945827]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>[34.88372093 58.13953488 55.81395349 44.18604651 41.86046512 41.86046512
- 58.13953488 67.44186047 48.8372093  55.81395349]</t>
+ 65.11627907 67.44186047 46.51162791 60.46511628]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 1.15 $\pm$ 0.51 &amp; 4.39 $\pm$ 2.10 &amp; 0.11 $\pm$ 4.04 &amp; 50.70 $\pm$ 9.46 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 1.15 $\pm$ 0.51 &amp; 4.39 $\pm$ 2.10 &amp; 0.11 $\pm$ 4.04 &amp; 51.63 $\pm$ 10.60 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>50.93 (6.10)</t>
+          <t>51.16 (5.97)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.12543178 0.08582428 0.19533153 0.06714666 0.07632769 0.10383508
- 0.12758417 0.09554334 0.14137674 0.09462601]</t>
+          <t>[0.12879693 0.07880666 0.19518659 0.06699963 0.07638826 0.10393786
+ 0.1273927  0.09529866 0.14116617 0.09587568]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.48807629 0.30353313 0.89023    0.22094781 0.24099519 0.39081719
- 0.51510039 0.38483223 0.46534159 0.39386973]</t>
+          <t>[0.50117064 0.27871405 0.88956943 0.220464   0.24118642 0.39120404
+ 0.51432738 0.38384671 0.46464852 0.39907132]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.02122193 0.01038357 0.00917684 0.00620677 0.00850844 0.00798055
- 0.01242589 0.0077982  0.00755235 0.00499298]</t>
+          <t>[0.02199564 0.00948428 0.00914551 0.00622813 0.00851802 0.00798786
+ 0.01249194 0.0077853  0.00753474 0.0049907 ]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>[41.86046512 55.81395349 51.1627907  58.13953488 48.8372093  48.8372093
- 46.51162791 58.13953488 41.86046512 58.13953488]</t>
+ 48.8372093  58.13953488 41.86046512 58.13953488]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.43 &amp; 50.93 $\pm$ 6.10 &amp; "-"</t>
+          <t>MLP &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.45 &amp; 51.16 $\pm$ 5.97 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.17 (0.05)</t>
+          <t>0.17 (0.09)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.64 (0.23)</t>
+          <t>0.67 (0.43)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52.33 (7.37)</t>
+          <t>51.86 (7.28)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.2266961  0.15179059 0.26226494 0.15534182 0.24503192 0.13916674
- 0.14771516 0.10188812 0.15358044 0.10518416]</t>
+          <t>[0.22611347 0.15195855 0.41510076 0.15912513 0.16346255 0.10563185
+ 0.14776457 0.10179268 0.15355737 0.10490107]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.88211288 0.53683493 1.19528127 0.51115626 0.77365779 0.5237994
- 0.59637599 0.41038791 0.50551008 0.43781682]</t>
+          <t>[0.87984576 0.53742894 1.89183568 0.52360533 0.51611264 0.39757992
+ 0.5965755  0.4100035  0.50543414 0.43663847]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.03829368 0.01850236 0.0126919  0.0138904  0.03245391 0.01069316
- 0.0143957  0.00822156 0.00850392 0.00556353]</t>
+          <t>[0.03826978 0.01819996 0.01995837 0.01417332 0.01901915 0.00819918
+ 0.01432473 0.00821334 0.00850101 0.00551951]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[41.86046512 60.46511628 46.51162791 55.81395349 55.81395349 60.46511628
- 48.8372093  48.8372093  41.86046512 62.79069767]</t>
+          <t>[41.86046512 60.46511628 46.51162791 55.81395349 55.81395349 58.13953488
+ 46.51162791 48.8372093  41.86046512 62.79069767]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.17 $\pm$ 0.05 &amp; 0.64 $\pm$ 0.23 &amp; 0.02 $\pm$ 1.02 &amp; 52.33 $\pm$ 7.37 &amp; "-"</t>
+          <t>CNN &amp; 0.17 $\pm$ 0.09 &amp; 0.67 $\pm$ 0.43 &amp; 0.02 $\pm$ 0.90 &amp; 51.86 $\pm$ 7.28 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.77 (3.54)</t>
+          <t>6.78 (3.55)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1281,20 +1281,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.25405678 0.59680302 2.06020551 1.07732791 1.45792144 2.48839214
- 1.78004861 2.33251503 2.70391748 2.94198849]</t>
+          <t>[0.25407083 0.59807027 2.05982951 1.07650564 1.45776939 2.49028075
+ 1.78052405 2.3499415  2.69516834 2.94583077]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.98857792  2.11070203  9.38945584  3.54497524  4.60320548  9.36587516
-  7.18665762  9.39497131  8.89994557 12.24568405]</t>
+          <t>[ 0.98863257  2.11518391  9.38774221  3.54226953  4.60272541  9.37298358
+  7.18857713  9.46516215  8.87114778 12.2616771 ]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.04408254 0.07235693 0.11982854 0.11884264 0.20546421 0.24372615
- 0.23300549 0.22484071 0.18411195 0.19603362]</t>
+          <t>[0.04406444 0.07255786 0.11980639 0.11874329 0.20544152 0.24391373
+ 0.23306922 0.22654365 0.18350736 0.19629165]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 1.77 $\pm$ 0.86 &amp; 6.77 $\pm$ 3.54 &amp; 0.16 $\pm$ 6.69 &amp; 43.72 $\pm$ 8.24 &amp; "-"</t>
+          <t>RNN &amp; 1.77 $\pm$ 0.86 &amp; 6.78 $\pm$ 3.55 &amp; 0.16 $\pm$ 6.70 &amp; 43.72 $\pm$ 8.24 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.27 (1.44)</t>
+          <t>3.26 (1.43)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.56 (6.30)</t>
+          <t>12.49 (6.13)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43.72 (8.24)</t>
+          <t>43.95 (8.09)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.57968348 1.73496363 4.87595748 2.42763818 2.4406022  3.89165864
- 2.83010685 3.83910588 4.84598884 5.24717012]</t>
+          <t>[0.56295988 1.70950086 4.69081063 2.50387191 2.45933184 3.88739847
+ 2.85420089 3.77737387 4.99863736 5.15368119]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[ 2.25564648  6.13601329 22.22234007  7.98820593  7.70589769 14.64752618
- 11.42609749 15.46326138 15.9505744  21.84073383]</t>
+          <t>[ 2.19057214  6.04595959 21.37852708  8.239055    7.76503417 14.63149164
+ 11.52337329 15.21461538 16.45301708 21.45159706]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.10619602 0.23841631 0.28513007 0.27830127 0.35070641 0.38281422
- 0.3732655  0.37175079 0.3317268  0.35062031]</t>
+          <t>[0.10282011 0.23480015 0.27427518 0.28721244 0.35345878 0.38239251
+ 0.37647655 0.36573899 0.34222942 0.34435582]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>[34.88372093 34.88372093 51.1627907  39.53488372 41.86046512 37.20930233
- 46.51162791 58.13953488 55.81395349 37.20930233]</t>
+ 46.51162791 58.13953488 55.81395349 39.53488372]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 3.27 $\pm$ 1.44 &amp; 12.56 $\pm$ 6.30 &amp; 0.31 $\pm$ 8.07 &amp; 43.72 $\pm$ 8.24 &amp; "-"</t>
+          <t>LSTM &amp; 3.26 $\pm$ 1.43 &amp; 12.49 $\pm$ 6.13 &amp; 0.31 $\pm$ 8.19 &amp; 43.95 $\pm$ 8.09 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.60 (0.51)</t>
+          <t>0.71 (0.51)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.30 (2.04)</t>
+          <t>2.64 (1.96)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.06 (0.05)</t>
+          <t>0.07 (0.05)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>44.88 (8.45)</t>
+          <t>46.28 (9.03)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.30174593 0.28516807 0.21722829 0.3011698  0.6948047  1.41951781
- 0.97908007 1.58292287 0.14976479 0.11679765]</t>
+          <t>[0.26138192 0.28116043 0.22565817 0.31535851 0.7510085  1.45800452
+ 1.08752318 1.49548916 1.06527868 0.1193921 ]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[1.17414448 1.00854856 0.99002522 0.991007   2.19375936 5.34281812
- 3.95287702 6.37574238 0.49295088 0.48615661]</t>
+          <t>[1.01708127 0.99437481 1.02844468 1.03769529 2.37121587 5.48767538
+ 4.39069849 6.02357434 3.50636526 0.4969557 ]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.04718528 0.03531941 0.00973397 0.0309375  0.08833481 0.13711242
- 0.12477201 0.15139114 0.0082109  0.00596738]</t>
+          <t>[0.04423745 0.03306992 0.00982925 0.03379148 0.09742498 0.14097848
+ 0.13959405 0.14278385 0.06976065 0.00623637]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[39.53488372 34.88372093 51.1627907  39.53488372 41.86046512 37.20930233
- 46.51162791 58.13953488 39.53488372 60.46511628]</t>
+          <t>[37.20930233 34.88372093 51.1627907  39.53488372 41.86046512 37.20930233
+ 46.51162791 58.13953488 55.81395349 60.46511628]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.60 $\pm$ 0.51 &amp; 2.30 $\pm$ 2.04 &amp; 0.06 $\pm$ 5.38 &amp; 44.88 $\pm$ 8.45 &amp; "-"</t>
+          <t>GRU &amp; 0.71 $\pm$ 0.51 &amp; 2.64 $\pm$ 1.96 &amp; 0.07 $\pm$ 5.19 &amp; 46.28 $\pm$ 9.03 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.17 (0.07)</t>
+          <t>0.15 (0.05)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.64 (0.32)</t>
+          <t>0.57 (0.27)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.02 (0.01)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>52.56 (7.73)</t>
+          <t>52.09 (7.22)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,25 +1503,25 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.18197603 0.13647796 0.33249663 0.11955164 0.23699763 0.18500782
- 0.13622545 0.09919475 0.14983788 0.10128988]</t>
+          <t>[0.16883504 0.1400695  0.29147476 0.12101676 0.18973534 0.10549358
+ 0.13665453 0.0985899  0.14904974 0.10202217]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.70809951 0.48267906 1.51536454 0.39338776 0.74829052 0.69633727
- 0.54998817 0.39953946 0.49319144 0.4216073 ]</t>
+          <t>[0.6569657  0.49538116 1.32840599 0.39820875 0.59906572 0.39705949
+ 0.55172051 0.39710323 0.49059729 0.42465538]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.03038908 0.01642086 0.01525194 0.01115883 0.02827218 0.01508289
- 0.01327691 0.00809623 0.00824653 0.00535111]</t>
+          <t>[0.02820163 0.01686699 0.01324188 0.01121106 0.01939059 0.00816326
+ 0.01341325 0.00804852 0.00817007 0.00537844]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[44.18604651 60.46511628 51.1627907  60.46511628 51.1627907  60.46511628
+          <t>[46.51162791 60.46511628 48.8372093  60.46511628 51.1627907  55.81395349
  46.51162791 53.48837209 37.20930233 60.46511628]</t>
         </is>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.17 $\pm$ 0.07 &amp; 0.64 $\pm$ 0.32 &amp; 0.02 $\pm$ 0.79 &amp; 52.56 $\pm$ 7.73 &amp; "-"</t>
+          <t>WaveNet &amp; 0.15 $\pm$ 0.05 &amp; 0.57 $\pm$ 0.27 &amp; 0.01 $\pm$ 0.65 &amp; 52.09 $\pm$ 7.22 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1562,51 +1562,51 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>51.63 (8.24)</t>
+          <t>52.56 (8.27)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 1000, r: 0.5 \\</t>
+          <t>omega: 1000, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.1666984  0.09023585 0.18719082 0.07255132 0.07476092 0.10463452
- 0.11677956 0.09556698 0.13134929 0.08345269]</t>
+          <t>[0.16471703 0.08446663 0.18867658 0.07335155 0.07634985 0.10643382
+ 0.1156583  0.09629325 0.13195378 0.08355832]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.64865168 0.31913542 0.85312847 0.23873197 0.23604831 0.39382612
- 0.47147855 0.38492743 0.43233623 0.34736211]</t>
+          <t>[0.64094184 0.29873153 0.85989986 0.24136515 0.24106516 0.40059839
+ 0.46695161 0.38785274 0.43432592 0.34780176]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.02891549 0.01056874 0.00858768 0.00657819 0.00846767 0.007583
- 0.01087522 0.00743557 0.00674008 0.0045289 ]</t>
+          <t>[0.02861731 0.00963372 0.00857383 0.00664636 0.00863841 0.0075753
+ 0.01087916 0.00744772 0.00679536 0.00453225]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[34.88372093 60.46511628 48.8372093  58.13953488 51.1627907  44.18604651
- 53.48837209 60.46511628 44.18604651 60.46511628]</t>
+          <t>[34.88372093 60.46511628 51.1627907  58.13953488 48.8372093  44.18604651
+ 55.81395349 60.46511628 48.8372093  62.79069767]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[4. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.65 &amp; 51.63 $\pm$ 8.24 &amp; 5 $\pm$ 0</t>
+          <t>eTS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.64 &amp; 52.56 $\pm$ 8.27 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.14 (0.04)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.53 (0.17)</t>
+          <t>0.43 (0.18)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>52.33 (5.81)</t>
+          <t>52.33 (8.40)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>81 (70)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1651,36 +1651,36 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.21974023 0.10570322 0.18814899 0.14665843 0.14807496 0.14825136
- 0.12027722 0.09820326 0.12956182 0.1024891 ]</t>
+          <t>[0.16548278 0.08406003 0.18854273 0.07334852 0.07632351 0.10603875
+ 0.11566975 0.09615651 0.13188764 0.08359116]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.8550464  0.37383859 0.85749534 0.48258335 0.46752824 0.55799233
- 0.48559979 0.39554593 0.42645279 0.42659893]</t>
+          <t>[0.6439215  0.29729353 0.85928982 0.24135519 0.24098199 0.39911142
+ 0.46699787 0.38730197 0.43410821 0.34793847]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.0409942  0.01289741 0.00875114 0.01339895 0.01687899 0.01214211
- 0.01127251 0.00793028 0.00668083 0.00588452]</t>
+          <t>[0.02879536 0.00960441 0.0085777  0.00663648 0.00860931 0.00754929
+ 0.01086181 0.00744871 0.00678672 0.00453485]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[41.86046512 58.13953488 48.8372093  58.13953488 51.1627907  51.1627907
- 48.8372093  60.46511628 46.51162791 58.13953488]</t>
+          <t>[34.88372093 60.46511628 51.1627907  58.13953488 48.8372093  44.18604651
+ 55.81395349 60.46511628 46.51162791 62.79069767]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[ 47.  91. 135. 179. 223.  13.  42.  23.  28.  29.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.14 $\pm$ 0.04 &amp; 0.53 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.97 &amp; 52.33 $\pm$ 5.81 &amp; 81 $\pm$ 70</t>
+          <t>Simpl\_eTS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.65 &amp; 52.33 $\pm$ 8.40 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.13 (0.06)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.50 (0.24)</t>
+          <t>0.43 (0.18)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1710,51 +1710,51 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>53.02 (9.11)</t>
+          <t>52.33 (7.94)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.5, omega: 1000 \\</t>
+          <t>mu: 0.1, omega: 250 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.179757   0.27269032 0.18928038 0.07287428 0.07317229 0.1067851
- 0.12019239 0.09469717 0.13149836 0.08393808]</t>
+          <t>[0.17673977 0.08444176 0.18375226 0.07439071 0.07702612 0.10428487
+ 0.11810219 0.09450646 0.1312484  0.08522184]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[0.69946491 0.96441874 0.86265167 0.23979469 0.2310324  0.40192055
- 0.48525727 0.38142399 0.4328269  0.34938249]</t>
+          <t>[0.68772434 0.29864358 0.83745709 0.24478455 0.24320039 0.39251012
+ 0.47681844 0.38065585 0.43200416 0.35472599]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.03125577 0.03143123 0.00874481 0.00659502 0.00834986 0.00781364
- 0.01122218 0.00727658 0.00673207 0.00456959]</t>
+          <t>[0.03082815 0.01000522 0.00864681 0.00676017 0.00851666 0.00764493
+ 0.01109777 0.00739556 0.0066721  0.00466386]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[34.88372093 69.76744186 48.8372093  53.48837209 53.48837209 46.51162791
- 55.81395349 60.46511628 46.51162791 60.46511628]</t>
+          <t>[34.88372093 58.13953488 48.8372093  62.79069767 53.48837209 46.51162791
+ 53.48837209 58.13953488 46.51162791 60.46511628]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[2. 2. 2. 2. 2. 2. 2. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.13 $\pm$ 0.06 &amp; 0.50 $\pm$ 0.24 &amp; 0.01 $\pm$ 0.96 &amp; 53.02 $\pm$ 9.11 &amp; 4 $\pm$ 0</t>
+          <t>exTS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.71 &amp; 52.33 $\pm$ 7.94 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.1, lambda1: 0.001, r: 0.25, s: 10000 \\</t>
+          <t>alpha: 0.01, beta: 0.1, lambda1: 0.001, omega: 10000, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.27 (0.27)</t>
+          <t>0.18 (0.06)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.97 (0.85)</t>
+          <t>0.66 (0.26)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.03 (0.04)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52.79 (10.09)</t>
+          <t>51.63 (11.29)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7 (3)</t>
+          <t>11 (5)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 50 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.39972679 0.09969238 0.17165152 0.19113344 1.04634657 0.29165501
- 0.13613543 0.13420134 0.12813159 0.102671  ]</t>
+          <t>[0.23781517 0.09301139 0.2573758  0.17387719 0.28943925 0.20494515
+ 0.13381039 0.12506225 0.12784713 0.11837369]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.55540458 0.35258016 0.78230757 0.62892951 3.30370906 1.09773874
- 0.54962471 0.54054003 0.42174518 0.42735606]</t>
+          <t>[0.92537905 0.32895163 1.17299885 0.57214739 0.91386841 0.7713779
+ 0.54023777 0.50372934 0.42080889 0.49271669]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.07325035 0.01162116 0.00790138 0.01579365 0.12652913 0.02518364
- 0.01268743 0.01051225 0.00660149 0.00582822]</t>
+          <t>[0.03266151 0.01072266 0.01266386 0.01455515 0.03483902 0.0175368
+ 0.01236368 0.009627   0.00666348 0.00674737]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[32.55813953 67.44186047 53.48837209 53.48837209 46.51162791 39.53488372
- 55.81395349 60.46511628 55.81395349 62.79069767]</t>
+          <t>[27.90697674 65.11627907 55.81395349 51.1627907  51.1627907  44.18604651
+ 39.53488372 62.79069767 53.48837209 65.11627907]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 3.  4.  4.  5.  6.  8. 10. 10. 11. 11.]</t>
+          <t>[ 5.  6.  7.  7.  8. 13. 15. 17. 18. 18.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.27 $\pm$ 0.27 &amp; 0.97 $\pm$ 0.85 &amp; 0.03 $\pm$ 3.75 &amp; 52.79 $\pm$ 10.09 &amp; 7 $\pm$ 3</t>
+          <t>eMG &amp; 0.18 $\pm$ 0.06 &amp; 0.66 $\pm$ 0.26 &amp; 0.02 $\pm$ 0.95 &amp; 51.63 $\pm$ 11.29 &amp; 11 $\pm$ 5</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.06 (1.73)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.11 (6.69)</t>
+          <t>0.43 (0.18)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.12 (0.19)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52.33 (7.22)</t>
+          <t>52.79 (7.43)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,31 +1942,31 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.5, omega: 10000, pi: 0.5, sigma: 0.1 \\</t>
+          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.54607702 0.1308277  0.23497495 0.15620766 0.13379413 5.17119504
- 3.75771893 0.24255451 0.13882754 0.10773749]</t>
+          <t>[0.16413041 0.08698654 0.18929403 0.07377769 0.07676838 0.10809194
+ 0.11578738 0.09675843 0.13219694 0.08349385]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[ 2.12487806  0.46269586  1.07090623  0.51400532  0.42243831 19.46347863
- 15.17118085  0.97696803  0.4569509   0.44844475]</t>
+          <t>[0.63865919 0.30764365 0.86271391 0.24276738 0.24238662 0.40683926
+ 0.46747279 0.3897264  0.43512629 0.34753341]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.09628429 0.01550132 0.01038407 0.01336608 0.01554229 0.50988403
- 0.49788399 0.0203337  0.00774146 0.00633241]</t>
+          <t>[0.02872448 0.00985342 0.00858853 0.00670371 0.00874865 0.00768323
+ 0.01096531 0.00744949 0.00682244 0.00452604]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[37.20930233 60.46511628 51.1627907  51.1627907  48.8372093  44.18604651
- 55.81395349 55.81395349 55.81395349 62.79069767]</t>
+          <t>[39.53488372 60.46511628 48.8372093  58.13953488 48.8372093  44.18604651
+ 55.81395349 60.46511628 48.8372093  62.79069767]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 1.06 $\pm$ 1.73 &amp; 4.11 $\pm$ 6.69 &amp; 0.12 $\pm$ 19.39 &amp; 52.33 $\pm$ 7.22 &amp; 1 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.65 &amp; 52.79 $\pm$ 7.43 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.61 (0.65)</t>
+          <t>0.27 (0.21)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.15 (2.04)</t>
+          <t>1.00 (0.72)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.04 (0.05)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.23 (5.81)</t>
+          <t>54.65 (7.94)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13 (7)</t>
+          <t>18 (4)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.05, lambda1: 1e-07, sigma: 1 \\</t>
+          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.05, lambda1: 1e-07, sigma: 10 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.39526729 0.1484384  0.35614981 0.80370698 2.40254484 0.97755407
- 0.25605439 0.19145477 0.16412909 0.37871424]</t>
+          <t>[0.16780656 0.25228802 0.50857413 0.27591298 0.79527899 0.21288063
+ 0.13392079 0.12870757 0.13897002 0.10608215]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[1.5380519  0.5249793  1.62316472 2.64461852 7.58573629 3.67934349
- 1.03377806 0.77114705 0.54023096 1.57635388]</t>
+          <t>[0.65296372 0.8922623  2.31784371 0.90789877 2.51099444 0.80124567
+ 0.54068346 0.51841205 0.45741987 0.44155459]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.07251538 0.01247014 0.01529249 0.0444131  0.17578819 0.06550914
- 0.02684656 0.01389197 0.00942354 0.01216053]</t>
+          <t>[0.02639454 0.02373901 0.01705264 0.01517662 0.0577642  0.01590585
+ 0.01233778 0.00952683 0.00780591 0.00554953]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[34.88372093 58.13953488 48.8372093  51.1627907  48.8372093  53.48837209
- 48.8372093  53.48837209 51.1627907  53.48837209]</t>
+          <t>[44.18604651 65.11627907 53.48837209 46.51162791 53.48837209 46.51162791
+ 55.81395349 60.46511628 51.1627907  69.76744186]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[ 1.  3.  5. 10. 13. 20. 20. 20. 20. 20.]</t>
+          <t>[ 9. 13. 17. 20. 20. 20. 20. 20. 20. 20.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.61 $\pm$ 0.65 &amp; 2.15 $\pm$ 2.04 &amp; 0.04 $\pm$ 4.89 &amp; 50.23 $\pm$ 5.81 &amp; 13 $\pm$ 7</t>
+          <t>ePL-KRLS-DISCO &amp; 0.27 $\pm$ 0.21 &amp; 1.00 $\pm$ 0.72 &amp; 0.02 $\pm$ 1.43 &amp; 54.65 $\pm$ 7.94 &amp; 18 $\pm$ 4</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.96 (0.44)</t>
+          <t>0.68 (0.34)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.67 (1.88)</t>
+          <t>2.61 (1.45)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.09 (0.04)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>53.02 (8.44)</t>
+          <t>55.35 (10.90)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>3 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: min, rules: 2 \\</t>
+          <t>fuzzy\_operator: max, rules: 3 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.30823146 0.39361185 1.55964616 0.82084568 1.20150628 1.74152707
- 0.74476434 0.97512811 0.73945401 1.1078273 ]</t>
+          <t>[0.20884407 0.26581642 1.24223936 0.6342262  1.10954782 1.05618776
+ 0.46361451 0.6566785  0.40076329 0.78119307]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.19938076 1.39207964 7.10813981 2.70101385 3.79360653 6.55480495
- 3.00686527 3.92764913 2.4339132  4.61120196]</t>
+          <t>[0.81264759 0.94010795 5.66154764 2.08693765 3.50325914 3.975307
+ 1.87176839 2.6449886  1.31911253 3.25162508]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.05582129 0.04477474 0.09029879 0.08746048 0.16699487 0.16936859
- 0.09229736 0.09113356 0.04597571 0.0721774 ]</t>
+          <t>[0.03851329 0.02940835 0.07146061 0.06368893 0.14646878 0.10037253
+ 0.05507899 0.05879912 0.02358577 0.04956212]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[39.53488372 65.11627907 46.51162791 60.46511628 55.81395349 51.1627907
- 51.1627907  53.48837209 41.86046512 65.11627907]</t>
+          <t>[44.18604651 81.39534884 55.81395349 62.79069767 48.8372093  44.18604651
+ 53.48837209 58.13953488 44.18604651 60.46511628]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[2. 2. 2. 2. 2. 2. 2. 2. 2. 2.]</t>
+          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.96 $\pm$ 0.44 &amp; 3.67 $\pm$ 1.88 &amp; 0.09 $\pm$ 4.21 &amp; 53.02 $\pm$ 8.44 &amp; 2 $\pm$ 0</t>
+          <t>NMR &amp; 0.68 $\pm$ 0.34 &amp; 2.61 $\pm$ 1.45 &amp; 0.06 $\pm$ 3.46 &amp; 55.35 $\pm$ 10.90 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.11 (0.04)</t>
+          <t>0.12 (0.03)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.44 (0.17)</t>
+          <t>0.45 (0.17)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>53.02 (7.34)</t>
+          <t>53.02 (7.49)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2164,31 +2164,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.98, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.97, rules: 1 \\</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.16995971 0.09675831 0.18081484 0.07256437 0.0730325  0.10961974
- 0.121608   0.09679722 0.12883074 0.08976339]</t>
+          <t>[0.171751   0.10423437 0.18435813 0.07650286 0.07365741 0.11690484
+ 0.12228233 0.09698818 0.1283482  0.100398  ]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.66134198 0.34220329 0.82406971 0.23877494 0.23059102 0.41258962
- 0.49097259 0.38988264 0.42404644 0.37362964]</t>
+          <t>[0.66831218 0.36864375 0.84021836 0.25173463 0.2325641  0.44000948
+ 0.49369509 0.39065181 0.42245816 0.41789497]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.02946215 0.01101914 0.00853178 0.00672217 0.00853498 0.00806336
- 0.01124498 0.00716596 0.00661791 0.00490149]</t>
+          <t>[0.02974013 0.01191839 0.00859811 0.00709139 0.00860309 0.00876782
+ 0.01131335 0.00712921 0.0067765  0.00571982]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[37.20930233 58.13953488 51.1627907  55.81395349 53.48837209 46.51162791
- 53.48837209 62.79069767 48.8372093  62.79069767]</t>
+          <t>[37.20930233 58.13953488 51.1627907  53.48837209 51.1627907  48.8372093
+ 53.48837209 62.79069767 48.8372093  65.11627907]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NTSK-RLS &amp; 0.11 $\pm$ 0.04 &amp; 0.44 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.67 &amp; 53.02 $\pm$ 7.34 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-RLS &amp; 0.12 $\pm$ 0.03 &amp; 0.45 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.67 &amp; 53.02 $\pm$ 7.49 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.11 (0.04)</t>
+          <t>0.12 (0.04)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.44 (0.18)</t>
+          <t>0.45 (0.19)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,51 +2228,51 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>51.63 (8.56)</t>
+          <t>51.63 (7.04)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>12 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 4 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 12 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.17550267 0.08015049 0.18739824 0.07829072 0.08034667 0.10498272
- 0.11982297 0.0952426  0.13134026 0.08422739]</t>
+          <t>[0.19058036 0.08412397 0.18803908 0.08546629 0.0761373  0.10400768
+ 0.12009713 0.09302123 0.13098029 0.08548049]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.68291059 0.28346674 0.85407378 0.25761764 0.2536846  0.3951367
- 0.4837658  0.38362091 0.43230651 0.35058669]</t>
+          <t>[0.74158041 0.29751966 0.85699445 0.28122902 0.24039403 0.39146681
+ 0.4848727  0.37467359 0.43112169 0.35580256]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.03117501 0.00888207 0.00855951 0.00699539 0.00878736 0.00765692
- 0.01111548 0.00736855 0.00672642 0.00458716]</t>
+          <t>[0.03456726 0.009881   0.00888551 0.00776792 0.00852289 0.00777903
+ 0.01133461 0.00725953 0.00667484 0.00467308]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[34.88372093 60.46511628 48.8372093  58.13953488 51.1627907  41.86046512
- 51.1627907  60.46511628 46.51162791 62.79069767]</t>
+          <t>[39.53488372 58.13953488 44.18604651 60.46511628 51.1627907  51.1627907
+ 46.51162791 58.13953488 46.51162791 60.46511628]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[11. 11. 12. 12. 12. 12. 12. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.11 $\pm$ 0.04 &amp; 0.44 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.72 &amp; 51.63 $\pm$ 8.56 &amp; 4 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.12 $\pm$ 0.04 &amp; 0.45 $\pm$ 0.19 &amp; 0.01 $\pm$ 0.81 &amp; 51.63 $\pm$ 7.04 &amp; 12 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,22 +2287,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.71 (0.36)</t>
+          <t>0.68 (0.34)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.71 (1.48)</t>
+          <t>2.61 (1.45)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>54.65 (9.60)</t>
+          <t>53.26 (9.95)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2317,26 +2317,26 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.26849875 0.3068461  1.2825184  0.63461137 1.26700091 1.05618776
- 0.46369221 0.65667807 0.40076642 0.78119307]</t>
+          <t>[0.2069469  0.26836074 1.24220417 0.63422157 1.10954787 1.05618776
+ 0.46370872 0.65667831 0.40076657 0.78119306]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.04477406 1.08521685 5.8451207  2.08820505 4.00039767 3.975307
- 1.8720821  2.64498688 1.31912284 3.25162508]</t>
+          <t>[0.8052654  0.94910638 5.66138727 2.08692241 3.50325931 3.975307
+ 1.87214876 2.64498782 1.31912335 3.25162503]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.04953313 0.0349271  0.07376576 0.06379361 0.16236613 0.10037253
- 0.05508842 0.05879911 0.02358612 0.04956212]</t>
+          <t>[0.03814262 0.0295192  0.07145849 0.06368808 0.1464688  0.10037253
+ 0.0551153  0.05879915 0.02358615 0.04956212]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[44.18604651 69.76744186 44.18604651 67.44186047 62.79069767 55.81395349
- 48.8372093  51.1627907  41.86046512 60.46511628]</t>
+          <t>[44.18604651 72.09302326 51.1627907  65.11627907 51.1627907  41.86046512
+ 55.81395349 46.51162791 41.86046512 62.79069767]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.71 $\pm$ 0.36 &amp; 2.71 $\pm$ 1.48 &amp; 0.07 $\pm$ 3.74 &amp; 54.65 $\pm$ 9.60 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 0.68 $\pm$ 0.34 &amp; 2.61 $\pm$ 1.45 &amp; 0.06 $\pm$ 3.46 &amp; 53.26 $\pm$ 9.95 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.12 (0.04)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.48 (0.21)</t>
+          <t>0.43 (0.18)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>54.42 (9.08)</t>
+          <t>51.16 (7.13)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.95, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: minmax, lambda1: 0.99, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.17333296 0.08721308 0.21406404 0.08873111 0.0736746  0.13975301
- 0.11203709 0.09770699 0.12949288 0.1222333 ]</t>
+          <t>[0.16737909 0.08880474 0.18115822 0.07017435 0.07384171 0.10445406
+ 0.11954272 0.09698238 0.13199528 0.08739122]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.67446786 0.30844487 0.97560407 0.29197201 0.23261838 0.52600602
- 0.45233158 0.39354702 0.42622587 0.50878184]</t>
+          <t>[0.65130034 0.31407406 0.82563467 0.23091052 0.23314601 0.39314691
+ 0.48263435 0.39062844 0.43446251 0.36375578]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.03021038 0.01031365 0.00977103 0.00782776 0.00845615 0.01117516
- 0.01054228 0.00715663 0.00676122 0.0071935 ]</t>
+          <t>[0.02905381 0.01000581 0.00841396 0.00648251 0.00842865 0.00759337
+ 0.01112196 0.00739595 0.00672996 0.00477698]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[37.20930233 60.46511628 48.8372093  58.13953488 46.51162791 48.8372093
- 60.46511628 62.79069767 51.1627907  69.76744186]</t>
+          <t>[37.20930233 60.46511628 48.8372093  53.48837209 46.51162791 44.18604651
+ 53.48837209 58.13953488 48.8372093  60.46511628]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.12 $\pm$ 0.04 &amp; 0.48 $\pm$ 0.21 &amp; 0.01 $\pm$ 0.66 &amp; 54.42 $\pm$ 9.08 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.66 &amp; 51.16 $\pm$ 7.13 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.43 (0.18)</t>
+          <t>0.44 (0.18)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.93 (8.67)</t>
+          <t>50.70 (7.56)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>11 (0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 4 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 11, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.174161   0.08224139 0.18593255 0.07310979 0.07435785 0.10477155
- 0.11649723 0.09607928 0.13127896 0.08391008]</t>
+          <t>[0.16831173 0.08357313 0.19052114 0.07355147 0.08047499 0.10375601
+ 0.1182354  0.09610126 0.13061908 0.08618797]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.67768992 0.29086157 0.84739385 0.24056963 0.23477565 0.39434187
- 0.47033867 0.3869909  0.43210475 0.34926591]</t>
+          <t>[0.6549294  0.29557151 0.86830648 0.242023   0.25408977 0.39051957
+ 0.47735627 0.38707944 0.42993277 0.35874739]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.03042457 0.00952355 0.00852943 0.00663673 0.00846372 0.00755593
- 0.01089038 0.007379   0.00673081 0.00456338]</t>
+          <t>[0.02941202 0.00976801 0.00892365 0.00664939 0.00911593 0.00767501
+ 0.01097597 0.00741522 0.00666285 0.00469043]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[34.88372093 58.13953488 48.8372093  58.13953488 46.51162791 41.86046512
- 53.48837209 60.46511628 44.18604651 62.79069767]</t>
+          <t>[34.88372093 58.13953488 46.51162791 58.13953488 46.51162791 48.8372093
+ 48.8372093  58.13953488 46.51162791 60.46511628]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.70 &amp; 50.93 $\pm$ 8.67 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.11 $\pm$ 0.04 &amp; 0.44 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.67 &amp; 50.70 $\pm$ 7.56 &amp; 11 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.91 (0.91)</t>
+          <t>0.94 (0.77)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.58 (4.14)</t>
+          <t>3.69 (3.52)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.07 (0.05)</t>
+          <t>0.08 (0.05)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>54.88 (9.08)</t>
+          <t>55.35 (10.23)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.25606263 0.61408316 3.42110649 1.40280809 1.06153275 0.62124063
- 0.38011061 0.51315125 0.22729702 0.56820537]</t>
+          <t>[0.23632677 0.58385762 2.99298984 1.19038671 1.06019003 1.27131542
+ 0.71958924 0.5505262  0.22745632 0.56934441]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[ 0.99638302  2.17181639 15.59180781  4.61597613  3.35165754  2.33824166
-  1.53463495  2.06688539  0.74814825  2.36508859]</t>
+          <t>[ 0.91958745  2.06491829 13.64065178  3.91699813  3.34741808  4.78501009
+  2.90522488  2.21742531  0.74867259  2.3698297 ]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.04710256 0.06357721 0.18885392 0.0981456  0.12851258 0.05438327
- 0.04539883 0.04505335 0.01318988 0.03449811]</t>
+          <t>[0.04338903 0.06961403 0.1619726  0.11387387 0.13874455 0.12204342
+ 0.08940694 0.04874931 0.01316555 0.0346002 ]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[55.81395349 79.06976744 51.1627907  53.48837209 53.48837209 53.48837209
- 53.48837209 48.8372093  41.86046512 58.13953488]</t>
+          <t>[55.81395349 79.06976744 53.48837209 65.11627907 46.51162791 48.8372093
+ 53.48837209 53.48837209 39.53488372 58.13953488]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.91 $\pm$ 0.91 &amp; 3.58 $\pm$ 4.14 &amp; 0.07 $\pm$ 4.98 &amp; 54.88 $\pm$ 9.08 &amp; "-"</t>
+          <t>R-NMR &amp; 0.94 $\pm$ 0.77 &amp; 3.69 $\pm$ 3.52 &amp; 0.08 $\pm$ 4.69 &amp; 55.35 $\pm$ 10.23 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.43 (0.18)</t>
+          <t>0.44 (0.18)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>52.79 (7.50)</t>
+          <t>52.33 (6.76)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 4 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.17237651 0.08204681 0.18402223 0.07470096 0.07583277 0.10418934
- 0.11524867 0.09517957 0.13221658 0.08519412]</t>
+          <t>[0.17496366 0.08996778 0.1838222  0.07405884 0.07568859 0.10352178
+ 0.11769762 0.09519152 0.13242016 0.08553415]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.67074615 0.29017341 0.83868749 0.24580544 0.23943255 0.39215054
- 0.4652978  0.383367   0.43519094 0.35461057]</t>
+          <t>[0.68081322 0.31818736 0.83777588 0.24369251 0.2389773  0.38963798
+ 0.47518507 0.38341516 0.43586103 0.35602591]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.03035804 0.00957813 0.00855413 0.00675585 0.00842876 0.00757079
- 0.01082647 0.00744522 0.00676126 0.00464029]</t>
+          <t>[0.03097155 0.01055079 0.00870888 0.00669005 0.00840575 0.00769575
+ 0.01103152 0.00748547 0.00679373 0.00467844]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[34.88372093 60.46511628 51.1627907  58.13953488 53.48837209 46.51162791
- 53.48837209 55.81395349 51.1627907  62.79069767]</t>
+          <t>[37.20930233 58.13953488 51.1627907  58.13953488 51.1627907  46.51162791
+ 51.1627907  55.81395349 51.1627907  62.79069767]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.69 &amp; 52.79 $\pm$ 7.50 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.11 $\pm$ 0.04 &amp; 0.44 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.71 &amp; 52.33 $\pm$ 6.76 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.57 (0.18)</t>
+          <t>0.58 (0.17)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>52.79 (6.74)</t>
+          <t>51.86 (5.80)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.17989461 0.10538388 0.21093138 0.16096048 0.2360318  0.18105846
- 0.11369449 0.10867774 0.13131139 0.09927018]</t>
+          <t>[0.18019641 0.11225453 0.20682236 0.16369353 0.24150113 0.18158676
+ 0.1155168  0.1104154  0.13334081 0.09947141]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.70000038 0.3727092  0.96132683 0.52964461 0.74524104 0.68147255
- 0.45902307 0.43773532 0.43221151 0.41320055]</t>
+          <t>[0.70117472 0.3970085  0.94259987 0.53863779 0.76250975 0.68346098
+ 0.46638035 0.44473435 0.43889133 0.41403813]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.03332383 0.01212778 0.01034692 0.01376478 0.02818603 0.01446706
- 0.01119344 0.00890088 0.00654169 0.0054327 ]</t>
+          <t>[0.03307714 0.01302318 0.01026124 0.01398265 0.02890168 0.01459179
+ 0.01139422 0.00906146 0.00672274 0.00549597]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[39.53488372 62.79069767 51.1627907  58.13953488 53.48837209 46.51162791
- 53.48837209 55.81395349 46.51162791 60.46511628]</t>
+          <t>[39.53488372 60.46511628 51.1627907  58.13953488 51.1627907  46.51162791
+ 51.1627907  55.81395349 48.8372093  55.81395349]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.15 $\pm$ 0.05 &amp; 0.57 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.87 &amp; 52.79 $\pm$ 6.74 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.15 $\pm$ 0.05 &amp; 0.58 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.87 &amp; 51.86 $\pm$ 5.80 &amp; "-"</t>
         </is>
       </c>
     </row>
